--- a/24_DS_Gen_Ahm_1/Attendance.xlsx
+++ b/24_DS_Gen_Ahm_1/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_Gen_Ahm_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A283E8-BB01-4006-8E0E-F4D711CABAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3062F-5AEC-4A8D-9349-587E6BFE1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:CJ63"/>
+  <dimension ref="A1:CK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ59" sqref="CJ59"/>
+      <selection pane="topRight" activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
     <col min="75" max="75" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1157,8 +1157,11 @@
       <c r="CJ1" s="8">
         <v>45804</v>
       </c>
+      <c r="CK1" s="8">
+        <v>45814</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1423,11 @@
       <c r="CJ2" t="s">
         <v>1</v>
       </c>
+      <c r="CK2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1671,8 +1677,11 @@
       <c r="CJ3" t="s">
         <v>1</v>
       </c>
+      <c r="CK3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2392,8 +2401,11 @@
       <c r="CJ8" t="s">
         <v>1</v>
       </c>
+      <c r="CK8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2466,8 +2478,11 @@
       <c r="CJ9" t="s">
         <v>1</v>
       </c>
+      <c r="CK9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2592,7 +2607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3044,8 +3059,11 @@
       <c r="CJ13" t="s">
         <v>2</v>
       </c>
+      <c r="CK13" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3167,7 +3185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3292,7 +3310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3362,8 +3380,11 @@
       <c r="CJ16" t="s">
         <v>1</v>
       </c>
+      <c r="CK16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3607,8 +3628,11 @@
       <c r="CJ17" t="s">
         <v>2</v>
       </c>
+      <c r="CK17" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3840,8 +3864,11 @@
       <c r="CI18" t="s">
         <v>2</v>
       </c>
+      <c r="CK18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3963,7 +3990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4208,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4464,8 +4491,11 @@
       <c r="CJ21" t="s">
         <v>1</v>
       </c>
+      <c r="CK21" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4656,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4730,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4930,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5052,7 +5082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5207,7 +5237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5469,8 +5499,11 @@
       <c r="CJ27" t="s">
         <v>1</v>
       </c>
+      <c r="CK27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5565,7 +5598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5779,8 +5812,11 @@
       <c r="CJ29" t="s">
         <v>2</v>
       </c>
+      <c r="CK29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -5856,8 +5892,11 @@
       <c r="CI30" t="s">
         <v>1</v>
       </c>
+      <c r="CK30" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -5979,7 +6018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -6061,8 +6100,11 @@
       <c r="CJ32" t="s">
         <v>1</v>
       </c>
+      <c r="CK32" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6133,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -6261,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6425,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -6495,8 +6537,11 @@
       <c r="CJ36" t="s">
         <v>1</v>
       </c>
+      <c r="CK36" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6731,8 +6776,11 @@
       <c r="CJ37" t="s">
         <v>2</v>
       </c>
+      <c r="CK37" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -6988,8 +7036,11 @@
       <c r="CJ38" t="s">
         <v>2</v>
       </c>
+      <c r="CK38" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7168,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -7382,8 +7433,11 @@
       <c r="CI40" t="s">
         <v>2</v>
       </c>
+      <c r="CK40" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -7544,7 +7598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -7758,8 +7812,11 @@
       <c r="CH42" t="s">
         <v>2</v>
       </c>
+      <c r="CK42" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -7938,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8141,7 +8198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8386,7 +8443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -8453,8 +8510,11 @@
       <c r="CJ46" t="s">
         <v>1</v>
       </c>
+      <c r="CK46" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -8707,8 +8767,11 @@
       <c r="CJ47" t="s">
         <v>1</v>
       </c>
+      <c r="CK47" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -8952,8 +9015,11 @@
       <c r="CH48" t="s">
         <v>2</v>
       </c>
+      <c r="CK48" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -9212,8 +9278,11 @@
       <c r="CJ49" t="s">
         <v>2</v>
       </c>
+      <c r="CK49" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9475,8 +9544,11 @@
       <c r="CJ50" t="s">
         <v>2</v>
       </c>
+      <c r="CK50" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -9718,7 +9790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -9971,8 +10043,11 @@
       <c r="CJ52" t="s">
         <v>1</v>
       </c>
+      <c r="CK52" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -10097,7 +10172,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -10344,8 +10419,11 @@
       <c r="CG54" t="s">
         <v>2</v>
       </c>
+      <c r="CK54" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -10574,8 +10652,11 @@
       <c r="CJ55" t="s">
         <v>2</v>
       </c>
+      <c r="CK55" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -10798,8 +10879,11 @@
       <c r="CJ56" t="s">
         <v>2</v>
       </c>
+      <c r="CK56" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -10872,8 +10956,11 @@
       <c r="CI57" t="s">
         <v>1</v>
       </c>
+      <c r="CK57" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -11115,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -11377,8 +11464,11 @@
       <c r="CJ59" t="s">
         <v>1</v>
       </c>
+      <c r="CK59" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -11622,8 +11712,11 @@
       <c r="CJ60" t="s">
         <v>2</v>
       </c>
+      <c r="CK60" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11634,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -11648,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>

--- a/24_DS_Gen_Ahm_1/Attendance.xlsx
+++ b/24_DS_Gen_Ahm_1/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_Gen_Ahm_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3062F-5AEC-4A8D-9349-587E6BFE1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000E0DE-8473-4AD2-929C-EBEC55C2576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:CK63"/>
+  <dimension ref="A1:CL63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CK2" sqref="CK2"/>
+      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL1" sqref="CL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
     <col min="75" max="75" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1160,8 +1160,11 @@
       <c r="CK1" s="8">
         <v>45814</v>
       </c>
+      <c r="CL1" s="8">
+        <v>45818</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1426,8 +1429,11 @@
       <c r="CK2" t="s">
         <v>1</v>
       </c>
+      <c r="CL2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1680,8 +1686,11 @@
       <c r="CK3" t="s">
         <v>1</v>
       </c>
+      <c r="CL3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2413,11 @@
       <c r="CK8" t="s">
         <v>1</v>
       </c>
+      <c r="CL8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2481,8 +2493,11 @@
       <c r="CK9" t="s">
         <v>1</v>
       </c>
+      <c r="CL9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +2622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2744,7 +2759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3062,8 +3077,11 @@
       <c r="CK13" t="s">
         <v>1</v>
       </c>
+      <c r="CL13" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3185,7 +3203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3383,8 +3401,11 @@
       <c r="CK16" t="s">
         <v>1</v>
       </c>
+      <c r="CL16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3632,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3867,8 +3888,11 @@
       <c r="CK18" t="s">
         <v>2</v>
       </c>
+      <c r="CL18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3990,7 +4014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4234,8 +4258,11 @@
       <c r="CJ20" t="s">
         <v>2</v>
       </c>
+      <c r="CL20" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4494,8 +4521,11 @@
       <c r="CK21" t="s">
         <v>1</v>
       </c>
+      <c r="CL21" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4686,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4759,8 +4789,11 @@
       <c r="CI23" t="s">
         <v>1</v>
       </c>
+      <c r="CL23" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4960,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5237,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5502,8 +5535,11 @@
       <c r="CK27" t="s">
         <v>1</v>
       </c>
+      <c r="CL27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5598,7 +5634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5815,8 +5851,11 @@
       <c r="CK29" t="s">
         <v>2</v>
       </c>
+      <c r="CL29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -5895,8 +5934,11 @@
       <c r="CK30" t="s">
         <v>1</v>
       </c>
+      <c r="CL30" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6018,7 +6060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -6103,8 +6145,11 @@
       <c r="CK32" t="s">
         <v>1</v>
       </c>
+      <c r="CL32" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6175,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -6303,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6467,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -6540,8 +6585,11 @@
       <c r="CK36" t="s">
         <v>1</v>
       </c>
+      <c r="CL36" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6780,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7039,8 +7087,11 @@
       <c r="CK38" t="s">
         <v>2</v>
       </c>
+      <c r="CL38" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7219,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -7437,7 +7488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -7598,7 +7649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -7816,7 +7867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -7995,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8198,7 +8249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8443,7 +8494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -8513,8 +8564,11 @@
       <c r="CK46" t="s">
         <v>1</v>
       </c>
+      <c r="CL46" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -8770,8 +8824,11 @@
       <c r="CK47" t="s">
         <v>1</v>
       </c>
+      <c r="CL47" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -9018,8 +9075,11 @@
       <c r="CK48" t="s">
         <v>2</v>
       </c>
+      <c r="CL48" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -9281,8 +9341,11 @@
       <c r="CK49" t="s">
         <v>1</v>
       </c>
+      <c r="CL49" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9548,7 +9611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -9789,8 +9852,11 @@
       <c r="CJ51" t="s">
         <v>2</v>
       </c>
+      <c r="CL51" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10046,8 +10112,11 @@
       <c r="CK52" t="s">
         <v>1</v>
       </c>
+      <c r="CL52" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -10172,7 +10241,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -10422,8 +10491,11 @@
       <c r="CK54" t="s">
         <v>2</v>
       </c>
+      <c r="CL54" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -10655,8 +10727,11 @@
       <c r="CK55" t="s">
         <v>2</v>
       </c>
+      <c r="CL55" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -10882,8 +10957,11 @@
       <c r="CK56" t="s">
         <v>2</v>
       </c>
+      <c r="CL56" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -10959,8 +11037,11 @@
       <c r="CK57" t="s">
         <v>1</v>
       </c>
+      <c r="CL57" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -11202,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -11467,8 +11548,11 @@
       <c r="CK59" t="s">
         <v>1</v>
       </c>
+      <c r="CL59" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -11715,8 +11799,11 @@
       <c r="CK60" t="s">
         <v>2</v>
       </c>
+      <c r="CL60" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11727,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -11741,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>

--- a/24_DS_Gen_Ahm_1/Attendance.xlsx
+++ b/24_DS_Gen_Ahm_1/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_Gen_Ahm_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000E0DE-8473-4AD2-929C-EBEC55C2576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F111AF29-C78C-43C2-A4AB-7F4B8CD4C924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:CL63"/>
+  <dimension ref="A1:CM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL1" sqref="CL1"/>
+      <selection pane="topRight" activeCell="CM63" sqref="CM63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
     <col min="75" max="75" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1163,8 +1163,11 @@
       <c r="CL1" s="8">
         <v>45818</v>
       </c>
+      <c r="CM1" s="8">
+        <v>45821</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1432,8 +1435,11 @@
       <c r="CL2" t="s">
         <v>1</v>
       </c>
+      <c r="CM2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1689,8 +1695,11 @@
       <c r="CL3" t="s">
         <v>2</v>
       </c>
+      <c r="CM3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1947,8 +1956,11 @@
       <c r="CJ6" t="s">
         <v>1</v>
       </c>
+      <c r="CM6" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2416,8 +2428,11 @@
       <c r="CL8" t="s">
         <v>1</v>
       </c>
+      <c r="CM8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2496,8 +2511,11 @@
       <c r="CL9" t="s">
         <v>1</v>
       </c>
+      <c r="CM9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3080,8 +3098,11 @@
       <c r="CL13" t="s">
         <v>2</v>
       </c>
+      <c r="CM13" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3203,7 +3224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3328,7 +3349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3404,8 +3425,11 @@
       <c r="CL16" t="s">
         <v>1</v>
       </c>
+      <c r="CM16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3653,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3891,8 +3915,11 @@
       <c r="CL18" t="s">
         <v>2</v>
       </c>
+      <c r="CM18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4261,8 +4288,11 @@
       <c r="CL20" t="s">
         <v>2</v>
       </c>
+      <c r="CM20" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4524,8 +4554,11 @@
       <c r="CL21" t="s">
         <v>1</v>
       </c>
+      <c r="CM21" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4716,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4793,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4993,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5115,7 +5148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5270,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5538,8 +5571,11 @@
       <c r="CL27" t="s">
         <v>1</v>
       </c>
+      <c r="CM27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5634,7 +5670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5854,8 +5890,11 @@
       <c r="CL29" t="s">
         <v>2</v>
       </c>
+      <c r="CM29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -5937,8 +5976,11 @@
       <c r="CL30" t="s">
         <v>1</v>
       </c>
+      <c r="CM30" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6060,7 +6102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -6148,8 +6190,11 @@
       <c r="CL32" t="s">
         <v>1</v>
       </c>
+      <c r="CM32" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6219,8 +6264,17 @@
       <c r="CJ33" t="s">
         <v>1</v>
       </c>
+      <c r="CK33" t="s">
+        <v>25</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -6348,7 +6402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6512,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -6589,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6828,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7090,8 +7144,11 @@
       <c r="CL38" t="s">
         <v>2</v>
       </c>
+      <c r="CM38" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7270,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -7488,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -7649,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -7867,7 +7924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -8046,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8249,7 +8306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8494,7 +8551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -8567,8 +8624,11 @@
       <c r="CL46" t="s">
         <v>1</v>
       </c>
+      <c r="CM46" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -8827,8 +8887,11 @@
       <c r="CL47" t="s">
         <v>2</v>
       </c>
+      <c r="CM47" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -9078,8 +9141,11 @@
       <c r="CL48" t="s">
         <v>2</v>
       </c>
+      <c r="CM48" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -9344,8 +9410,11 @@
       <c r="CL49" t="s">
         <v>1</v>
       </c>
+      <c r="CM49" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9610,8 +9679,11 @@
       <c r="CK50" t="s">
         <v>2</v>
       </c>
+      <c r="CM50" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -9855,8 +9927,11 @@
       <c r="CL51" t="s">
         <v>2</v>
       </c>
+      <c r="CM51" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10115,8 +10190,11 @@
       <c r="CL52" t="s">
         <v>1</v>
       </c>
+      <c r="CM52" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -10241,7 +10319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -10494,8 +10572,11 @@
       <c r="CL54" t="s">
         <v>2</v>
       </c>
+      <c r="CM54" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -10730,8 +10811,11 @@
       <c r="CL55" t="s">
         <v>2</v>
       </c>
+      <c r="CM55" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -10960,8 +11044,11 @@
       <c r="CL56" t="s">
         <v>2</v>
       </c>
+      <c r="CM56" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -11040,8 +11127,11 @@
       <c r="CL57" t="s">
         <v>1</v>
       </c>
+      <c r="CM57" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -11283,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -11552,7 +11642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -11802,8 +11892,11 @@
       <c r="CL60" t="s">
         <v>2</v>
       </c>
+      <c r="CM60" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11814,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -11828,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>

--- a/24_DS_Gen_Ahm_1/Attendance.xlsx
+++ b/24_DS_Gen_Ahm_1/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_Gen_Ahm_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F111AF29-C78C-43C2-A4AB-7F4B8CD4C924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B1E636-A757-4DA6-BE01-35A1D293C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
+    <workbookView xWindow="6120" yWindow="0" windowWidth="16788" windowHeight="12360" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:CM63"/>
+  <dimension ref="A1:CN63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM63" sqref="CM63"/>
+      <selection pane="topRight" activeCell="CN60" sqref="CN60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
     <col min="75" max="75" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1166,11 @@
       <c r="CM1" s="8">
         <v>45821</v>
       </c>
+      <c r="CN1" s="8">
+        <v>45825</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1438,8 +1441,11 @@
       <c r="CM2" t="s">
         <v>1</v>
       </c>
+      <c r="CN2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1698,8 +1704,11 @@
       <c r="CM3" t="s">
         <v>1</v>
       </c>
+      <c r="CN3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1960,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2431,8 +2440,11 @@
       <c r="CM8" t="s">
         <v>1</v>
       </c>
+      <c r="CN8" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2514,8 +2526,11 @@
       <c r="CM9" t="s">
         <v>1</v>
       </c>
+      <c r="CN9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2777,7 +2792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3101,8 +3116,11 @@
       <c r="CM13" t="s">
         <v>2</v>
       </c>
+      <c r="CN13" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3428,8 +3446,11 @@
       <c r="CM16" t="s">
         <v>1</v>
       </c>
+      <c r="CN16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3677,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3918,8 +3939,11 @@
       <c r="CM18" t="s">
         <v>2</v>
       </c>
+      <c r="CN18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4291,8 +4315,11 @@
       <c r="CM20" t="s">
         <v>2</v>
       </c>
+      <c r="CN20" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4557,8 +4584,11 @@
       <c r="CM21" t="s">
         <v>1</v>
       </c>
+      <c r="CN21" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4749,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4825,8 +4855,11 @@
       <c r="CL23" t="s">
         <v>1</v>
       </c>
+      <c r="CN23" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -5026,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5303,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5574,8 +5607,11 @@
       <c r="CM27" t="s">
         <v>1</v>
       </c>
+      <c r="CN27" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5670,7 +5706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5893,8 +5929,11 @@
       <c r="CM29" t="s">
         <v>2</v>
       </c>
+      <c r="CN29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -5979,8 +6018,11 @@
       <c r="CM30" t="s">
         <v>1</v>
       </c>
+      <c r="CN30" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6102,7 +6144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -6193,8 +6235,11 @@
       <c r="CM32" t="s">
         <v>1</v>
       </c>
+      <c r="CN32" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6273,8 +6318,11 @@
       <c r="CM33" t="s">
         <v>1</v>
       </c>
+      <c r="CN33" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -6402,7 +6450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6566,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -6642,8 +6690,11 @@
       <c r="CL36" t="s">
         <v>1</v>
       </c>
+      <c r="CN36" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6881,8 +6932,11 @@
       <c r="CK37" t="s">
         <v>1</v>
       </c>
+      <c r="CN37" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7147,8 +7201,11 @@
       <c r="CM38" t="s">
         <v>2</v>
       </c>
+      <c r="CN38" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7327,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -7545,7 +7602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -7706,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -7923,8 +7980,11 @@
       <c r="CK42" t="s">
         <v>2</v>
       </c>
+      <c r="CN42" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -8103,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8306,7 +8366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8551,7 +8611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -8627,8 +8687,11 @@
       <c r="CM46" t="s">
         <v>1</v>
       </c>
+      <c r="CN46" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -8890,8 +8953,11 @@
       <c r="CM47" t="s">
         <v>2</v>
       </c>
+      <c r="CN47" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -9145,7 +9211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -9413,8 +9479,11 @@
       <c r="CM49" t="s">
         <v>2</v>
       </c>
+      <c r="CN49" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9682,8 +9751,11 @@
       <c r="CM50" t="s">
         <v>2</v>
       </c>
+      <c r="CN50" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -9931,7 +10003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10193,8 +10265,11 @@
       <c r="CM52" t="s">
         <v>2</v>
       </c>
+      <c r="CN52" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -10319,7 +10394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -10575,8 +10650,11 @@
       <c r="CM54" t="s">
         <v>2</v>
       </c>
+      <c r="CN54" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -10814,8 +10892,11 @@
       <c r="CM55" t="s">
         <v>2</v>
       </c>
+      <c r="CN55" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -11047,8 +11128,11 @@
       <c r="CM56" t="s">
         <v>2</v>
       </c>
+      <c r="CN56" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -11130,8 +11214,11 @@
       <c r="CM57" t="s">
         <v>1</v>
       </c>
+      <c r="CN57" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -11373,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -11641,8 +11728,11 @@
       <c r="CL59" t="s">
         <v>1</v>
       </c>
+      <c r="CN59" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -11896,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11907,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -11921,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>

--- a/24_DS_Gen_Ahm_1/Attendance.xlsx
+++ b/24_DS_Gen_Ahm_1/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_Gen_Ahm_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B1E636-A757-4DA6-BE01-35A1D293C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05C2FA-E2F1-49D0-8649-D2AE5E8A3DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="0" windowWidth="16788" windowHeight="12360" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:CN63"/>
+  <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CN60" sqref="CN60"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CO20" sqref="CO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
     <col min="75" max="75" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1169,11 @@
       <c r="CN1" s="8">
         <v>45825</v>
       </c>
+      <c r="CO1" s="8">
+        <v>45828</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1447,11 @@
       <c r="CN2" t="s">
         <v>2</v>
       </c>
+      <c r="CO2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1707,8 +1713,11 @@
       <c r="CN3" t="s">
         <v>2</v>
       </c>
+      <c r="CO3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2443,8 +2452,11 @@
       <c r="CN8" t="s">
         <v>2</v>
       </c>
+      <c r="CO8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2529,8 +2541,11 @@
       <c r="CN9" t="s">
         <v>1</v>
       </c>
+      <c r="CO9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2655,7 +2670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2845,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3119,8 +3134,11 @@
       <c r="CN13" t="s">
         <v>2</v>
       </c>
+      <c r="CO13" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3449,8 +3467,11 @@
       <c r="CN16" t="s">
         <v>1</v>
       </c>
+      <c r="CO16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3697,8 +3718,11 @@
       <c r="CK17" t="s">
         <v>2</v>
       </c>
+      <c r="CO17" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3942,8 +3966,11 @@
       <c r="CN18" t="s">
         <v>2</v>
       </c>
+      <c r="CO18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +4092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4318,8 +4345,11 @@
       <c r="CN20" t="s">
         <v>2</v>
       </c>
+      <c r="CO20" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4587,8 +4617,11 @@
       <c r="CN21" t="s">
         <v>2</v>
       </c>
+      <c r="CO21" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4779,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4859,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -5059,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5181,7 +5214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5336,7 +5369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5610,8 +5643,11 @@
       <c r="CN27" t="s">
         <v>2</v>
       </c>
+      <c r="CO27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5706,7 +5742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5932,8 +5968,11 @@
       <c r="CN29" t="s">
         <v>2</v>
       </c>
+      <c r="CO29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -6021,8 +6060,11 @@
       <c r="CN30" t="s">
         <v>1</v>
       </c>
+      <c r="CO30" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6144,7 +6186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -6238,8 +6280,11 @@
       <c r="CN32" t="s">
         <v>1</v>
       </c>
+      <c r="CO32" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6321,8 +6366,11 @@
       <c r="CN33" t="s">
         <v>1</v>
       </c>
+      <c r="CO33" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -6450,7 +6498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6614,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -6693,8 +6741,11 @@
       <c r="CN36" t="s">
         <v>1</v>
       </c>
+      <c r="CO36" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6935,8 +6986,11 @@
       <c r="CN37" t="s">
         <v>2</v>
       </c>
+      <c r="CO37" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7204,8 +7258,11 @@
       <c r="CN38" t="s">
         <v>2</v>
       </c>
+      <c r="CO38" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7384,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -7602,7 +7659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -7763,7 +7820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -7984,7 +8041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -8163,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8366,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8611,7 +8668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -8691,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -8956,8 +9013,11 @@
       <c r="CN47" t="s">
         <v>2</v>
       </c>
+      <c r="CO47" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -9210,8 +9270,11 @@
       <c r="CM48" t="s">
         <v>2</v>
       </c>
+      <c r="CO48" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -9482,8 +9545,11 @@
       <c r="CN49" t="s">
         <v>2</v>
       </c>
+      <c r="CO49" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9754,8 +9820,11 @@
       <c r="CN50" t="s">
         <v>2</v>
       </c>
+      <c r="CO50" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -10002,8 +10071,11 @@
       <c r="CM51" t="s">
         <v>2</v>
       </c>
+      <c r="CO51" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10268,8 +10340,11 @@
       <c r="CN52" t="s">
         <v>1</v>
       </c>
+      <c r="CO52" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -10394,7 +10469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -10653,8 +10728,11 @@
       <c r="CN54" t="s">
         <v>2</v>
       </c>
+      <c r="CO54" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -10895,8 +10973,11 @@
       <c r="CN55" t="s">
         <v>2</v>
       </c>
+      <c r="CO55" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -11131,8 +11212,11 @@
       <c r="CN56" t="s">
         <v>2</v>
       </c>
+      <c r="CO56" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -11217,8 +11301,11 @@
       <c r="CN57" t="s">
         <v>1</v>
       </c>
+      <c r="CO57" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -11460,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -11731,8 +11818,11 @@
       <c r="CN59" t="s">
         <v>2</v>
       </c>
+      <c r="CO59" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -11986,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -11997,7 +12087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -12011,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>

--- a/24_DS_Gen_Ahm_1/Attendance.xlsx
+++ b/24_DS_Gen_Ahm_1/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_Gen_Ahm_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCC9C0-FE9B-4AAA-BDE1-D7674FBF29F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F3C90-BCDC-459C-8CD3-684715C2B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Attendance!$A$1:$BL$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Attendance!$A$1:$BL$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -317,12 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Gyan Mehta</t>
-  </si>
-  <si>
-    <t>Arpit Dadhania</t>
   </si>
 </sst>
 </file>
@@ -874,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:CP65"/>
+  <dimension ref="A1:CP67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1995,7 +1989,7 @@
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="BM7" t="s">
         <v>2</v>
@@ -2024,7 +2018,7 @@
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -2287,7 +2281,7 @@
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2553,7 +2547,7 @@
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="BG10" t="s">
         <v>1</v>
@@ -2573,7 +2567,7 @@
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -2698,7 +2692,7 @@
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -2874,7 +2868,7 @@
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="BI13" t="s">
         <v>1</v>
@@ -2978,7 +2972,7 @@
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3169,7 +3163,7 @@
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -3291,7 +3285,7 @@
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -3485,7 +3479,7 @@
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="BG17" t="s">
         <v>1</v>
@@ -3574,7 +3568,7 @@
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -3828,7 +3822,7 @@
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -4010,7 +4004,7 @@
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -4201,7 +4195,7 @@
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -4473,7 +4467,7 @@
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="BQ22" t="s">
         <v>2</v>
@@ -4508,7 +4502,7 @@
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -4759,7 +4753,7 @@
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -4932,7 +4926,7 @@
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="BG25" t="s">
         <v>1</v>
@@ -4952,7 +4946,7 @@
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -5143,7 +5137,7 @@
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -5355,7 +5349,7 @@
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -5510,7 +5504,7 @@
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="BM29" t="s">
         <v>2</v>
@@ -5599,7 +5593,7 @@
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -5862,7 +5856,7 @@
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
@@ -5957,7 +5951,7 @@
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -6190,7 +6184,7 @@
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="BG33" t="s">
         <v>1</v>
@@ -6285,7 +6279,7 @@
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -6407,7 +6401,7 @@
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="BG35" t="s">
         <v>1</v>
@@ -6424,7 +6418,7 @@
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="BI36" t="s">
         <v>1</v>
@@ -6504,7 +6498,7 @@
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -6710,7 +6704,7 @@
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -6961,7 +6955,7 @@
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="BG39" t="s">
         <v>1</v>
@@ -6996,7 +6990,7 @@
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -7223,7 +7217,7 @@
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -7423,7 +7417,7 @@
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -7626,7 +7620,7 @@
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -7787,7 +7781,7 @@
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -7960,7 +7954,7 @@
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -8202,7 +8196,7 @@
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -8441,7 +8435,7 @@
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -8707,7 +8701,7 @@
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -8960,9 +8954,6 @@
       </c>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
       <c r="BG49" t="s">
         <v>1</v>
       </c>
@@ -9070,9 +9061,6 @@
       </c>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
       <c r="B50" t="s">
         <v>34</v>
       </c>
@@ -10329,213 +10317,226 @@
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <f>COUNTIF(C1:C31, "P") +COUNTIF(C1:C31, "O")</f>
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <f>COUNTIF(D1:D31, "P") +COUNTIF(D1:D31, "O")</f>
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <f>COUNTIF(E1:E31, "P") +COUNTIF(E1:E31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="F55">
-        <f>COUNTIF(F1:F31, "P") +COUNTIF(F1:F31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="G55">
-        <f>COUNTIF(G1:G31, "P") +COUNTIF(G1:G31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="H55">
-        <f>COUNTIF(H1:H31, "P") +COUNTIF(H1:H31, "O")</f>
-        <v>15</v>
-      </c>
-      <c r="I55">
-        <f>COUNTIF(I1:I31, "P") +COUNTIF(I1:I31, "O")</f>
-        <v>15</v>
-      </c>
-      <c r="J55">
-        <f>COUNTIF(J1:J31, "P") +COUNTIF(J1:J31, "O")</f>
-        <v>15</v>
-      </c>
-      <c r="K55">
-        <f>COUNTIF(K1:K31, "P") +COUNTIF(K1:K31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="L55">
-        <f>COUNTIF(L1:L31, "P") +COUNTIF(L1:L31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="M55">
-        <f>COUNTIF(M1:M31, "P") +COUNTIF(M1:M31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="N55">
-        <f>COUNTIF(N1:N31, "P") +COUNTIF(N1:N31, "O")</f>
-        <v>15</v>
-      </c>
-      <c r="O55">
-        <f>COUNTIF(O1:O31, "P") +COUNTIF(O1:O31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="P55">
-        <f>COUNTIF(P1:P31, "P") +COUNTIF(P1:P31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="Q55">
-        <f>COUNTIF(Q1:Q31, "P") +COUNTIF(Q1:Q31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="R55">
-        <f>COUNTIF(R1:R31, "P") +COUNTIF(R1:R31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="S55">
-        <f>COUNTIF(S1:S31, "P") +COUNTIF(S1:S31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="T55">
-        <f>COUNTIF(T1:T31, "P") +COUNTIF(T1:T31, "O")</f>
-        <v>15</v>
-      </c>
-      <c r="U55">
-        <f>COUNTIF(U1:U31, "P") +COUNTIF(U1:U31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="V55">
-        <f>COUNTIF(V1:V31, "P") +COUNTIF(V1:V31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="W55">
-        <f>COUNTIF(W1:W31, "P") +COUNTIF(W1:W31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="X55">
-        <f>COUNTIF(X1:X31, "P") +COUNTIF(X1:X31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="Y55">
-        <f>COUNTIF(Y1:Y31, "P") +COUNTIF(Y1:Y31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="Z55">
-        <f>COUNTIF(Z1:Z31, "P") +COUNTIF(Z1:Z31, "O")</f>
-        <v>14</v>
-      </c>
-      <c r="AA55">
-        <f>COUNTIF(AA1:AA31, "P") +COUNTIF(AA1:AA31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AB55">
-        <f>COUNTIF(AB1:AB31, "P") +COUNTIF(AB1:AB31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AC55">
-        <f>COUNTIF(AC1:AC31, "P") +COUNTIF(AC1:AC31, "O")</f>
-        <v>15</v>
-      </c>
-      <c r="AD55">
-        <f>COUNTIF(AD1:AD31, "P") +COUNTIF(AD1:AD31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AE55">
-        <f>COUNTIF(AE1:AE31, "P") +COUNTIF(AE1:AE31, "O")</f>
-        <v>11</v>
-      </c>
-      <c r="AF55">
-        <f>COUNTIF(AF1:AF31, "P") +COUNTIF(AF1:AF31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AG55">
-        <f>COUNTIF(AG1:AG31, "P") +COUNTIF(AG1:AG31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AH55">
-        <f>COUNTIF(AH1:AH31, "P") +COUNTIF(AH1:AH31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AI55">
-        <f>COUNTIF(AI1:AI31, "P") +COUNTIF(AI1:AI31, "O")</f>
-        <v>12</v>
-      </c>
-      <c r="AJ55">
-        <f>COUNTIF(AJ1:AJ31, "P") +COUNTIF(AJ1:AJ31, "O")</f>
-        <v>9</v>
-      </c>
-      <c r="AK55">
-        <f>COUNTIF(AK1:AK31, "P") +COUNTIF(AK1:AK31, "O")</f>
-        <v>7</v>
-      </c>
-      <c r="AL55">
-        <f>COUNTIF(AL1:AL31, "P") +COUNTIF(AL1:AL31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AM55">
-        <f>COUNTIF(AM1:AM31, "P") +COUNTIF(AM1:AM31, "O")</f>
-        <v>13</v>
-      </c>
-      <c r="AN55">
-        <f>COUNTIF(AN1:AN31, "P") +COUNTIF(AN1:AN31, "O")</f>
-        <v>11</v>
-      </c>
-      <c r="AO55">
-        <f>COUNTIF(AO1:AO31, "P") +COUNTIF(AO1:AO31, "O")</f>
-        <v>12</v>
-      </c>
-      <c r="AP55">
-        <f>COUNTIF(AP1:AP31, "P") +COUNTIF(AP1:AP31, "O")</f>
-        <v>9</v>
-      </c>
-      <c r="AQ55">
-        <f>COUNTIF(AQ1:AQ31, "P") +COUNTIF(AQ1:AQ31, "O")</f>
-        <v>11</v>
-      </c>
-      <c r="AR55">
-        <f>COUNTIF(AR1:AR31, "P") +COUNTIF(AR1:AR31, "O")</f>
-        <v>9</v>
-      </c>
-      <c r="AS55">
-        <f>COUNTIF(AS1:AS31, "P") +COUNTIF(AS1:AS31, "O")</f>
-        <v>10</v>
-      </c>
-      <c r="AT55">
-        <f>COUNTIF(AT1:AT31, "P") +COUNTIF(AT1:AT31, "O")</f>
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>2</v>
+      </c>
+      <c r="V55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
+        <v>1</v>
+      </c>
+      <c r="X55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>1</v>
       </c>
       <c r="BM55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ55" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BR55" t="s">
+        <v>2</v>
       </c>
       <c r="BS55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT55" t="s">
         <v>2</v>
       </c>
       <c r="BU55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX55" t="s">
         <v>2</v>
@@ -10543,7 +10544,16 @@
       <c r="BY55" t="s">
         <v>2</v>
       </c>
-      <c r="BZ55" t="s">
+      <c r="CA55" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB55" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD55" t="s">
         <v>2</v>
       </c>
       <c r="CE55" t="s">
@@ -10552,12 +10562,6 @@
       <c r="CF55" t="s">
         <v>2</v>
       </c>
-      <c r="CG55" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH55" t="s">
-        <v>2</v>
-      </c>
       <c r="CJ55" t="s">
         <v>2</v>
       </c>
@@ -10574,99 +10578,102 @@
         <v>2</v>
       </c>
       <c r="CO55" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="O56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="S56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="U56" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="V56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="W56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X56" t="s">
         <v>25</v>
       </c>
       <c r="Y56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Z56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AA56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AB56" t="s">
         <v>25</v>
       </c>
       <c r="AC56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AD56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AE56" t="s">
         <v>25</v>
@@ -10675,180 +10682,108 @@
         <v>25</v>
       </c>
       <c r="AG56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AH56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AI56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AN56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AO56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AP56" t="s">
         <v>25</v>
       </c>
       <c r="AQ56" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AR56" t="s">
         <v>25</v>
       </c>
-      <c r="AS56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ56" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA56" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH56" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK56" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL56" t="s">
-        <v>1</v>
-      </c>
       <c r="BM56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV56" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW56" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX56" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY56" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BZ56" t="s">
+        <v>1</v>
       </c>
       <c r="CA56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC56" t="s">
         <v>1</v>
       </c>
       <c r="CD56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF56" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ56" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="CG56" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI56" t="s">
+        <v>1</v>
       </c>
       <c r="CK56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
@@ -10860,103 +10795,115 @@
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>2</v>
       </c>
       <c r="K57" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M57" t="s">
         <v>25</v>
       </c>
       <c r="N57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="S57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="U57" t="s">
         <v>25</v>
       </c>
       <c r="V57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="W57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="X57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Y57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Z57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AA57" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AB57" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AD57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AE57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AF57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AG57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AH57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AI57" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>2</v>
       </c>
       <c r="AN57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AO57" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AP57" t="s">
         <v>25</v>
@@ -10967,286 +10914,304 @@
       <c r="AR57" t="s">
         <v>25</v>
       </c>
+      <c r="AS57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL57" t="s">
+        <v>2</v>
+      </c>
       <c r="BM57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV57" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BW57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX57" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>2</v>
       </c>
       <c r="BZ57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CL57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO57" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP57" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="O58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="P58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="S58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="T58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="U58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="V58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="W58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Y58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Z58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AA58" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AB58" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AC58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AD58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AE58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AF58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AG58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AH58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AI58" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AJ58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AK58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AL58" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AM58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO58" t="s">
         <v>2</v>
       </c>
       <c r="AP58" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AQ58" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AR58" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AS58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AV58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ58" t="s">
         <v>1</v>
       </c>
       <c r="BA58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF58" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI58" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR58" t="s">
         <v>2</v>
@@ -11255,216 +11220,240 @@
         <v>2</v>
       </c>
       <c r="BT58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV58" t="s">
         <v>2</v>
       </c>
       <c r="BW58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA58" t="s">
         <v>2</v>
       </c>
       <c r="CB58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC58" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="CD58" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ58" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK58" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL58" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP58" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="S59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="T59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="U59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="V59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="W59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="X59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Y59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AA59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AB59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AD59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AE59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AF59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AG59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AH59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AI59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AJ59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AK59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AL59" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AM59" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AN59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO59" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AP59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ59" t="s">
         <v>2</v>
       </c>
       <c r="AR59" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AV59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW59" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>25</v>
       </c>
       <c r="BA59" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="BB59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF59" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>2</v>
       </c>
       <c r="BI59" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>2</v>
       </c>
       <c r="BK59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM59" t="s">
         <v>1</v>
       </c>
       <c r="BN59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO59" t="s">
         <v>1</v>
@@ -11479,7 +11468,7 @@
         <v>2</v>
       </c>
       <c r="BS59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT59" t="s">
         <v>1</v>
@@ -11488,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="BV59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW59" t="s">
         <v>1</v>
@@ -11497,22 +11486,16 @@
         <v>1</v>
       </c>
       <c r="BY59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ59" t="s">
         <v>1</v>
       </c>
-      <c r="CA59" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB59" t="s">
-        <v>1</v>
-      </c>
       <c r="CC59" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="CD59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE59" t="s">
         <v>2</v>
@@ -11520,267 +11503,36 @@
       <c r="CF59" t="s">
         <v>2</v>
       </c>
-      <c r="CG59" t="s">
-        <v>1</v>
-      </c>
       <c r="CH59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CJ59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL59" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN59" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO59" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP59" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="CM59" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" t="s">
-        <v>2</v>
-      </c>
-      <c r="O60" t="s">
-        <v>2</v>
-      </c>
-      <c r="P60" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>2</v>
-      </c>
-      <c r="R60" t="s">
-        <v>2</v>
-      </c>
-      <c r="S60" t="s">
-        <v>2</v>
-      </c>
-      <c r="T60" t="s">
-        <v>2</v>
-      </c>
-      <c r="U60" t="s">
-        <v>2</v>
-      </c>
-      <c r="V60" t="s">
-        <v>2</v>
-      </c>
-      <c r="W60" t="s">
-        <v>2</v>
-      </c>
-      <c r="X60" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW60" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ60" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA60" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF60" t="s">
-        <v>2</v>
-      </c>
       <c r="BG60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK60" t="s">
         <v>2</v>
       </c>
       <c r="BL60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX60" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY60" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ60" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC60" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD60" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE60" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF60" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH60" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI60" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ60" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK60" t="s">
-        <v>2</v>
-      </c>
-      <c r="CL60" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM60" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11788,16 +11540,199 @@
       <c r="A61" t="s">
         <v>83</v>
       </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s">
+        <v>2</v>
+      </c>
+      <c r="S61" t="s">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s">
+        <v>2</v>
+      </c>
+      <c r="U61" t="s">
+        <v>2</v>
+      </c>
+      <c r="V61" t="s">
+        <v>2</v>
+      </c>
+      <c r="W61" t="s">
+        <v>2</v>
+      </c>
+      <c r="X61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>2</v>
+      </c>
       <c r="BG61" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>2</v>
       </c>
       <c r="BJ61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK61" t="s">
         <v>2</v>
       </c>
       <c r="BL61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS61" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV61" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11812,7 +11747,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
@@ -11905,16 +11840,16 @@
         <v>2</v>
       </c>
       <c r="AI62" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AJ62" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AK62" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AL62" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AM62" t="s">
         <v>2</v>
@@ -11932,7 +11867,7 @@
         <v>2</v>
       </c>
       <c r="AR62" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AS62" t="s">
         <v>2</v>
@@ -11965,7 +11900,7 @@
         <v>2</v>
       </c>
       <c r="BD62" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BE62" t="s">
         <v>2</v>
@@ -11980,24 +11915,18 @@
         <v>2</v>
       </c>
       <c r="BI62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL62" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS62" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT62" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV62" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP62" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12009,49 +11938,49 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="O63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="P63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="R63" t="s">
         <v>2</v>
@@ -12060,13 +11989,13 @@
         <v>2</v>
       </c>
       <c r="T63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W63" t="s">
         <v>2</v>
@@ -12078,61 +12007,61 @@
         <v>2</v>
       </c>
       <c r="Z63" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AA63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB63" t="s">
         <v>2</v>
       </c>
       <c r="AC63" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AD63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE63" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AF63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI63" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AJ63" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AK63" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AL63" t="s">
         <v>25</v>
       </c>
       <c r="AM63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="s">
         <v>2</v>
       </c>
       <c r="AR63" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AS63" t="s">
         <v>2</v>
@@ -12141,43 +12070,37 @@
         <v>2</v>
       </c>
       <c r="AU63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV63" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX63" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY63" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>1</v>
       </c>
       <c r="AZ63" t="s">
         <v>2</v>
       </c>
       <c r="BA63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD63" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="BE63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG63" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI63" t="s">
         <v>1</v>
@@ -12186,9 +12109,6 @@
         <v>1</v>
       </c>
       <c r="BK63" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL63" t="s">
         <v>1</v>
       </c>
       <c r="CP63" t="s">
@@ -12199,202 +12119,27 @@
       <c r="A64" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" t="s">
-        <v>2</v>
-      </c>
-      <c r="S64" t="s">
-        <v>2</v>
-      </c>
-      <c r="T64" t="s">
-        <v>1</v>
-      </c>
-      <c r="U64" t="s">
-        <v>1</v>
-      </c>
-      <c r="V64" t="s">
-        <v>1</v>
-      </c>
-      <c r="W64" t="s">
-        <v>2</v>
-      </c>
-      <c r="X64" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ64" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF64" t="s">
-        <v>1</v>
-      </c>
       <c r="BG64" t="s">
         <v>1</v>
       </c>
-      <c r="BI64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP64" t="s">
+      <c r="BH64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>87</v>
       </c>
-      <c r="BG65" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH65" t="s">
-        <v>1</v>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL61" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BL65">
-      <sortCondition ref="A1:A61"/>
+  <autoFilter ref="A1:BL60" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BL64">
+      <sortCondition ref="A1:A60"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC46">
